--- a/Manuscript_items/ARIC_table.xlsx
+++ b/Manuscript_items/ARIC_table.xlsx
@@ -414,13 +414,13 @@
         <v>2008</v>
       </c>
       <c r="C2">
-        <v>0.1225066670943887</v>
+        <v>0.1222636138850752</v>
       </c>
       <c r="D2">
-        <v>0.1064038901715331</v>
+        <v>0.1057002684394103</v>
       </c>
       <c r="E2">
-        <v>0.1386094440172443</v>
+        <v>0.13882695933074</v>
       </c>
       <c r="F2">
         <v>0.0663</v>
@@ -432,7 +432,7 @@
         <v>0.06836639783197718</v>
       </c>
       <c r="I2">
-        <v>1.847762701272831</v>
+        <v>1.844096740348042</v>
       </c>
     </row>
     <row r="3">
@@ -445,13 +445,13 @@
         <v>2008</v>
       </c>
       <c r="C3">
-        <v>0.1120701900681751</v>
+        <v>0.1121701929164067</v>
       </c>
       <c r="D3">
-        <v>0.09136608423110072</v>
+        <v>0.09115879567886753</v>
       </c>
       <c r="E3">
-        <v>0.1327742959052495</v>
+        <v>0.1331815901539459</v>
       </c>
       <c r="F3">
         <v>0.0922</v>
@@ -463,7 +463,7 @@
         <v>0.09934142842854285</v>
       </c>
       <c r="I3">
-        <v>1.21551182286524</v>
+        <v>1.216596452455604</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>2008</v>
       </c>
       <c r="C4">
-        <v>0.1240025357718659</v>
+        <v>0.1237103120608772</v>
       </c>
       <c r="D4">
-        <v>0.1056625483601647</v>
+        <v>0.1048997498267974</v>
       </c>
       <c r="E4">
-        <v>0.1423425231835672</v>
+        <v>0.142520874294957</v>
       </c>
       <c r="F4">
         <v>0.058</v>
@@ -494,7 +494,7 @@
         <v>0.0605219040425837</v>
       </c>
       <c r="I4">
-        <v>2.137974754687343</v>
+        <v>2.132936414842709</v>
       </c>
     </row>
     <row r="5">
@@ -507,13 +507,13 @@
         <v>2010</v>
       </c>
       <c r="C5">
-        <v>0.129961334754101</v>
+        <v>0.1298085476041752</v>
       </c>
       <c r="D5">
-        <v>0.1199593970374472</v>
+        <v>0.1201157430993357</v>
       </c>
       <c r="E5">
-        <v>0.1399632724707549</v>
+        <v>0.1395013521090146</v>
       </c>
       <c r="F5">
         <v>0.0699</v>
@@ -525,7 +525,7 @@
         <v>0.07223880311270531</v>
       </c>
       <c r="I5">
-        <v>1.859246563005737</v>
+        <v>1.857060766869459</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         <v>2010</v>
       </c>
       <c r="C6">
-        <v>0.1157434701751547</v>
+        <v>0.1174398640020927</v>
       </c>
       <c r="D6">
-        <v>0.0935336838333338</v>
+        <v>0.09530498576167851</v>
       </c>
       <c r="E6">
-        <v>0.1379532565169756</v>
+        <v>0.1395747422425069</v>
       </c>
       <c r="F6">
         <v>0.098</v>
@@ -556,7 +556,7 @@
         <v>0.1064516270622881</v>
       </c>
       <c r="I6">
-        <v>1.181055818113823</v>
+        <v>1.198365959205028</v>
       </c>
     </row>
     <row r="7">
@@ -569,13 +569,13 @@
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>0.1320531019318108</v>
+        <v>0.1316282587321475</v>
       </c>
       <c r="D7">
-        <v>0.1207887142566991</v>
+        <v>0.1206422772245421</v>
       </c>
       <c r="E7">
-        <v>0.1433174896069225</v>
+        <v>0.1426142402397529</v>
       </c>
       <c r="F7">
         <v>0.061</v>
@@ -587,7 +587,7 @@
         <v>0.06385657137141713</v>
       </c>
       <c r="I7">
-        <v>2.164804949701816</v>
+        <v>2.157840307084385</v>
       </c>
     </row>
     <row r="8">
@@ -600,13 +600,13 @@
         <v>2012</v>
       </c>
       <c r="C8">
-        <v>0.1352715927715953</v>
+        <v>0.1352107422351856</v>
       </c>
       <c r="D8">
-        <v>0.1255123755692025</v>
+        <v>0.1255406952568572</v>
       </c>
       <c r="E8">
-        <v>0.1450308099739881</v>
+        <v>0.144880789213514</v>
       </c>
       <c r="F8">
         <v>0.07000000000000001</v>
@@ -618,7 +618,7 @@
         <v>0.07236643191323985</v>
       </c>
       <c r="I8">
-        <v>1.932451325308504</v>
+        <v>1.931582031931223</v>
       </c>
     </row>
     <row r="9">
@@ -631,25 +631,25 @@
         <v>2012</v>
       </c>
       <c r="C9">
-        <v>0.1178234631269318</v>
+        <v>0.1183434228749769</v>
       </c>
       <c r="D9">
-        <v>0.1036088711544252</v>
+        <v>0.1042024671512946</v>
       </c>
       <c r="E9">
-        <v>0.1320380550994385</v>
+        <v>0.1324843785986592</v>
       </c>
       <c r="F9">
         <v>0.0998</v>
       </c>
       <c r="G9">
-        <v>0.09151990338220623</v>
+        <v>0.09151990338220622</v>
       </c>
       <c r="H9">
         <v>0.1080800966177938</v>
       </c>
       <c r="I9">
-        <v>1.180595822915149</v>
+        <v>1.18580584043063</v>
       </c>
     </row>
     <row r="10">
@@ -662,13 +662,13 @@
         <v>2012</v>
       </c>
       <c r="C10">
-        <v>0.1379171645116919</v>
+        <v>0.1377682486464359</v>
       </c>
       <c r="D10">
-        <v>0.1264973317840383</v>
+        <v>0.1264430399222376</v>
       </c>
       <c r="E10">
-        <v>0.1493369972393455</v>
+        <v>0.1490934573706342</v>
       </c>
       <c r="F10">
         <v>0.0607</v>
@@ -680,7 +680,7 @@
         <v>0.06360860791444981</v>
       </c>
       <c r="I10">
-        <v>2.272111441708269</v>
+        <v>2.269658132560723</v>
       </c>
     </row>
     <row r="11">
@@ -693,13 +693,13 @@
         <v>2014</v>
       </c>
       <c r="C11">
-        <v>0.1413651185536952</v>
+        <v>0.1416380243261261</v>
       </c>
       <c r="D11">
-        <v>0.1215013653511237</v>
+        <v>0.1217328932683307</v>
       </c>
       <c r="E11">
-        <v>0.1612288717562668</v>
+        <v>0.1615431553839215</v>
       </c>
       <c r="F11">
         <v>0.0684</v>
@@ -711,7 +711,7 @@
         <v>0.07073880311270531</v>
       </c>
       <c r="I11">
-        <v>2.06674149932303</v>
+        <v>2.070731349797165</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         <v>2014</v>
       </c>
       <c r="C12">
-        <v>0.1294630819123495</v>
+        <v>0.1300975656703274</v>
       </c>
       <c r="D12">
-        <v>0.1079435571889934</v>
+        <v>0.1083387281803911</v>
       </c>
       <c r="E12">
-        <v>0.1509826066357056</v>
+        <v>0.1518564031602638</v>
       </c>
       <c r="F12">
         <v>0.0969</v>
@@ -742,7 +742,7 @@
         <v>0.1048862381632406</v>
       </c>
       <c r="I12">
-        <v>1.336048316948912</v>
+        <v>1.342596136948683</v>
       </c>
     </row>
     <row r="13">
@@ -755,13 +755,13 @@
         <v>2014</v>
       </c>
       <c r="C13">
-        <v>0.1431758045578127</v>
+        <v>0.1433937025851361</v>
       </c>
       <c r="D13">
-        <v>0.1215808469159813</v>
+        <v>0.1217863508811835</v>
       </c>
       <c r="E13">
-        <v>0.1647707621996441</v>
+        <v>0.1650010542890887</v>
       </c>
       <c r="F13">
         <v>0.059</v>
@@ -773,7 +773,7 @@
         <v>0.0619086079144498</v>
       </c>
       <c r="I13">
-        <v>2.426708551827334</v>
+        <v>2.43040173873112</v>
       </c>
     </row>
     <row r="14">
@@ -786,13 +786,13 @@
         <v>2016</v>
       </c>
       <c r="C14">
-        <v>0.1212355472052996</v>
+        <v>0.1215010639800628</v>
       </c>
       <c r="D14">
-        <v>0.1057638818021673</v>
+        <v>0.1061272187930013</v>
       </c>
       <c r="E14">
-        <v>0.1367072126084319</v>
+        <v>0.1368749091671244</v>
       </c>
       <c r="F14">
         <v>0.0658</v>
@@ -801,10 +801,10 @@
         <v>0.06358414801938396</v>
       </c>
       <c r="H14">
-        <v>0.06801585198061604</v>
+        <v>0.06801585198061603</v>
       </c>
       <c r="I14">
-        <v>1.84248551983738</v>
+        <v>1.846520729180287</v>
       </c>
     </row>
     <row r="15">
@@ -817,13 +817,13 @@
         <v>2016</v>
       </c>
       <c r="C15">
-        <v>0.100419696036546</v>
+        <v>0.1006387351626012</v>
       </c>
       <c r="D15">
-        <v>0.07276527195401074</v>
+        <v>0.07215633492897154</v>
       </c>
       <c r="E15">
-        <v>0.1280741201190813</v>
+        <v>0.1291211353962308</v>
       </c>
       <c r="F15">
         <v>0.0963</v>
@@ -835,7 +835,7 @@
         <v>0.1043690767749477</v>
       </c>
       <c r="I15">
-        <v>1.042779813463614</v>
+        <v>1.045054363059202</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>2016</v>
       </c>
       <c r="C16">
-        <v>0.1243892847303656</v>
+        <v>0.124661843172732</v>
       </c>
       <c r="D16">
-        <v>0.1078411900092185</v>
+        <v>0.1081803308507519</v>
       </c>
       <c r="E16">
-        <v>0.1409373794515126</v>
+        <v>0.1411433554947121</v>
       </c>
       <c r="F16">
         <v>0.0555</v>
@@ -866,7 +866,7 @@
         <v>0.05828926513619627</v>
       </c>
       <c r="I16">
-        <v>2.2412483735201</v>
+        <v>2.246159336445622</v>
       </c>
     </row>
     <row r="17">
@@ -879,13 +879,13 @@
         <v>2018</v>
       </c>
       <c r="C17">
-        <v>0.1313456568713055</v>
+        <v>0.1316774605227175</v>
       </c>
       <c r="D17">
-        <v>0.1210648227597034</v>
+        <v>0.1213783228768117</v>
       </c>
       <c r="E17">
-        <v>0.1416264909829077</v>
+        <v>0.1419765981686233</v>
       </c>
       <c r="F17">
         <v>0.0619</v>
@@ -897,7 +897,7 @@
         <v>0.0639976176963403</v>
       </c>
       <c r="I17">
-        <v>2.121900757210105</v>
+        <v>2.127261074680412</v>
       </c>
     </row>
     <row r="18">
@@ -910,13 +910,13 @@
         <v>2018</v>
       </c>
       <c r="C18">
-        <v>0.1230977357200835</v>
+        <v>0.1241682137631379</v>
       </c>
       <c r="D18">
-        <v>0.099993768641743</v>
+        <v>0.1007856396160773</v>
       </c>
       <c r="E18">
-        <v>0.146201702798424</v>
+        <v>0.1475507879101985</v>
       </c>
       <c r="F18">
         <v>0.0901</v>
@@ -928,7 +928,7 @@
         <v>0.09719929573971954</v>
       </c>
       <c r="I18">
-        <v>1.366234580689051</v>
+        <v>1.378115580057024</v>
       </c>
     </row>
     <row r="19">
@@ -941,13 +941,13 @@
         <v>2018</v>
       </c>
       <c r="C19">
-        <v>0.132671479664653</v>
+        <v>0.1328845441419937</v>
       </c>
       <c r="D19">
-        <v>0.1210223032844285</v>
+        <v>0.1212483282632826</v>
       </c>
       <c r="E19">
-        <v>0.1443206560448776</v>
+        <v>0.1445207600207048</v>
       </c>
       <c r="F19">
         <v>0.0512</v>
@@ -959,7 +959,7 @@
         <v>0.05371992063367084</v>
       </c>
       <c r="I19">
-        <v>2.591239837200254</v>
+        <v>2.595401252773314</v>
       </c>
     </row>
   </sheetData>

--- a/Manuscript_items/ARIC_table.xlsx
+++ b/Manuscript_items/ARIC_table.xlsx
@@ -407,7 +407,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="B2">
@@ -500,7 +500,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="B5">
@@ -593,7 +593,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="B8">
@@ -686,7 +686,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="B11">
@@ -779,7 +779,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="B14">
@@ -872,7 +872,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="B17">
